--- a/uploads/result.xlsx
+++ b/uploads/result.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>countryOrigin</t>
+          <t>geographicalRegion</t>
         </is>
       </c>
     </row>
